--- a/data/trans_orig/SOLEDAD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SOLEDAD-Edad-trans_orig.xlsx
@@ -1115,12 +1115,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10670,97 +10670,97 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1196</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>1206</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SOLEDAD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SOLEDAD-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en País Vasco</t>
+          <t>Sensación de soledad en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5341,7 +5341,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en Andalucia</t>
+          <t>Sensación de soledad en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10136,7 +10136,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en C.Valenciana</t>
+          <t>Sensación de soledad en C.Valenciana (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -14931,7 +14931,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Sensación de soledad en Barcelona</t>
+          <t>Sensación de soledad en Barcelona (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SOLEDAD-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SOLEDAD-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20429</t>
+          <t>54446</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18514</t>
+          <t>48351</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21907</t>
+          <t>59634</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>80,11%</t>
+          <t>78,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>72,6%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>86,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14532</t>
+          <t>40756</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12655</t>
+          <t>32744</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16582</t>
+          <t>48368</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>61,59%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>70,28%</t>
+          <t>67,72%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>34961</t>
+          <t>95201</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>32020</t>
+          <t>85351</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>37543</t>
+          <t>104512</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>71,21%</t>
+          <t>67,67%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>60,67%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>76,47%</t>
+          <t>74,28%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>10326</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2721</t>
+          <t>6641</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5866</t>
+          <t>15628</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7370</t>
+          <t>24391</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5453</t>
+          <t>17049</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9356</t>
+          <t>32497</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>11388</t>
+          <t>34717</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>9071</t>
+          <t>27635</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>14294</t>
+          <t>44291</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>31,48%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>1830</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>350</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>5498</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>6279</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>2518</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>11594</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>2255</t>
+          <t>8109</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>3728</t>
+          <t>14753</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>706</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>7121</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>500</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>7121</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22214</t>
+          <t>70885</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19984</t>
+          <t>63068</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24173</t>
+          <t>77316</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>76,95%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,22%</t>
+          <t>69,17%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>83,73%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22395</t>
+          <t>61715</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19969</t>
+          <t>53277</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24476</t>
+          <t>68907</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>69,52%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>61,99%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>44608</t>
+          <t>132601</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>41478</t>
+          <t>119865</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>47731</t>
+          <t>142660</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>73,03%</t>
+          <t>72,72%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>67,9%</t>
+          <t>65,74%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>78,14%</t>
+          <t>78,24%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>16337</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3977</t>
+          <t>10585</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7920</t>
+          <t>24004</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8587</t>
+          <t>21744</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6698</t>
+          <t>15495</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11094</t>
+          <t>29798</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>34,44%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14413</t>
+          <t>38081</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11622</t>
+          <t>29637</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>17472</t>
+          <t>49050</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>26,9%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>820</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>9147</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>14874</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>10314</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>5108</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>2816</t>
+          <t>18666</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>4978</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>270</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1689,12 +1689,12 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
@@ -1724,12 +1724,12 @@
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>5363</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35854</t>
+          <t>98568</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>33236</t>
+          <t>90605</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38391</t>
+          <t>105189</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>76,2%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>70,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>81,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,67 +1909,67 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>35863</t>
+          <t>89391</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>32856</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>38609</t>
+          <t>96755</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>70,89%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>65,29%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>76,73%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>187959</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>178036</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>198857</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>73,79%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
           <t>69,89%</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>64,03%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>75,24%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>441</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>71717</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>67737</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>75575</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>72,91%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>68,86%</t>
-        </is>
-      </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>76,83%</t>
+          <t>78,07%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10098</t>
+          <t>26638</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7779</t>
+          <t>20054</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12664</t>
+          <t>34733</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11594</t>
+          <t>29330</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9229</t>
+          <t>22662</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14591</t>
+          <t>36345</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,27 +2057,27 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>21692</t>
+          <t>55969</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>18344</t>
+          <t>45349</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>25575</t>
+          <t>66234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2147</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3272</t>
+          <t>6494</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>3823</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5356</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>4289</t>
+          <t>9564</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>5961</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t>14253</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>359</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>2312</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>875</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>205</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>2526</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>399</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>3240</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>54138</t>
+          <t>114253</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>50615</t>
+          <t>105223</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>57116</t>
+          <t>121616</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>75,19%</t>
+          <t>75,45%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,3%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>79,33%</t>
+          <t>80,31%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>50462</t>
+          <t>102690</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>47201</t>
+          <t>94624</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>54218</t>
+          <t>109946</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>68,08%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>64,15%</t>
+          <t>62,73%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>72,89%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>104601</t>
+          <t>216943</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>99571</t>
+          <t>206048</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>109608</t>
+          <t>227919</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>68,4%</t>
+          <t>68,17%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>75,29%</t>
+          <t>75,4%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13729</t>
+          <t>29168</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10864</t>
+          <t>21945</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17189</t>
+          <t>36532</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>19,26%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>19218</t>
+          <t>40367</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>15873</t>
+          <t>33991</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>22453</t>
+          <t>48297</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>32947</t>
+          <t>69536</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>28614</t>
+          <t>59652</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>37576</t>
+          <t>79655</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>26,35%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3526</t>
+          <t>6829</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2143</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5309</t>
+          <t>11397</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>7463</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>4656</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5926</t>
+          <t>11604</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>7225</t>
+          <t>14292</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>4898</t>
+          <t>9868</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>10148</t>
+          <t>21190</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>325</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1809</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>324</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -2827,12 +2827,12 @@
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>395</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>2134</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3012,32 +3012,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>50980</t>
+          <t>95492</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>47759</t>
+          <t>89164</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>54104</t>
+          <t>101934</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>75,19%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>70,44%</t>
+          <t>68,66%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>79,8%</t>
+          <t>78,5%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3047,32 +3047,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>58656</t>
+          <t>95494</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>54963</t>
+          <t>87594</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>61848</t>
+          <t>102880</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>71,99%</t>
+          <t>67,92%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>67,46%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>75,91%</t>
+          <t>73,17%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3082,32 +3082,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>109636</t>
+          <t>190985</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>104736</t>
+          <t>180406</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>114140</t>
+          <t>200781</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>70,61%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>66,7%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>76,46%</t>
+          <t>74,24%</t>
         </is>
       </c>
     </row>
@@ -3125,32 +3125,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>12517</t>
+          <t>26308</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>9829</t>
+          <t>20701</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15384</t>
+          <t>32514</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,32 +3160,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>20527</t>
+          <t>39009</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17247</t>
+          <t>32395</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>24059</t>
+          <t>46465</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,32 +3195,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>33044</t>
+          <t>65317</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>29052</t>
+          <t>56027</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>38111</t>
+          <t>75673</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>27,98%</t>
         </is>
       </c>
     </row>
@@ -3238,32 +3238,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>5587</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>3006</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>9525</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,32 +3273,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2053</t>
+          <t>5085</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>2747</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>3559</t>
+          <t>8914</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,32 +3308,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>10672</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>6931</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>7087</t>
+          <t>15743</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -3351,32 +3351,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>2469</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3199</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>3538</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,27 +3421,27 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3486</t>
+          <t>6339</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
@@ -3464,17 +3464,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3581,32 +3581,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>49657</t>
+          <t>78724</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>46926</t>
+          <t>73964</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>51915</t>
+          <t>82765</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>81,86%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>77,45%</t>
+          <t>76,91%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3616,32 +3616,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>52375</t>
+          <t>84814</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>49332</t>
+          <t>79465</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>55263</t>
+          <t>89341</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>76,24%</t>
+          <t>75,89%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>71,1%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>79,94%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3651,32 +3651,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>102033</t>
+          <t>163537</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>97946</t>
+          <t>156701</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>105677</t>
+          <t>170251</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>78,92%</t>
+          <t>78,65%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
+          <t>75,36%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>81,74%</t>
+          <t>81,88%</t>
         </is>
       </c>
     </row>
@@ -3694,32 +3694,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8930</t>
+          <t>15528</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6849</t>
+          <t>11827</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11393</t>
+          <t>20177</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3729,32 +3729,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>14022</t>
+          <t>23381</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>11384</t>
+          <t>18911</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>17033</t>
+          <t>28840</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3764,32 +3764,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>22952</t>
+          <t>38909</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>19805</t>
+          <t>32506</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>26969</t>
+          <t>45738</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>22,0%</t>
         </is>
       </c>
     </row>
@@ -3807,32 +3807,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>407</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2992</t>
+          <t>3554</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3842,32 +3842,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>979</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>3223</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3877,32 +3877,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>5246</t>
+          <t>6683</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -3920,32 +3920,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>469</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>114</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3955,32 +3955,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>225</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>4783</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,22 +3990,22 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>589</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>2276</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -4033,17 +4033,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4103,17 +4103,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4150,32 +4150,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>38794</t>
+          <t>62709</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>36034</t>
+          <t>58059</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>41153</t>
+          <t>66761</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>83,66%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4185,32 +4185,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>49674</t>
+          <t>83386</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>45805</t>
+          <t>76910</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>53375</t>
+          <t>89125</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>61,81%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>56,99%</t>
+          <t>60,12%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>69,67%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4220,32 +4220,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>88468</t>
+          <t>146095</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>83955</t>
+          <t>137212</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>93092</t>
+          <t>153638</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>67,59%</t>
+          <t>70,33%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>73,96%</t>
         </is>
       </c>
     </row>
@@ -4263,32 +4263,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>8939</t>
+          <t>13403</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>6764</t>
+          <t>9908</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>11542</t>
+          <t>17943</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4298,32 +4298,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>23081</t>
+          <t>34274</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>19796</t>
+          <t>28941</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>26816</t>
+          <t>40288</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4333,32 +4333,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>47677</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>27836</t>
+          <t>40740</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>36549</t>
+          <t>55392</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>27,92%</t>
+          <t>26,66%</t>
         </is>
       </c>
     </row>
@@ -4376,32 +4376,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>2225</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>3609</t>
+          <t>6627</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4411,32 +4411,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>5905</t>
+          <t>6972</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>4027</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>7784</t>
+          <t>10409</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4446,32 +4446,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>8130</t>
+          <t>10539</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>7511</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>10782</t>
+          <t>14802</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>7,13%</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>706</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4524,32 +4524,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>3085</t>
+          <t>7148</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4559,32 +4559,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>2267</t>
+          <t>3426</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>3896</t>
+          <t>7578</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4637,17 +4637,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4672,17 +4672,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4719,32 +4719,32 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>272065</t>
+          <t>575077</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>264655</t>
+          <t>557943</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>278500</t>
+          <t>591953</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>75,12%</t>
+          <t>74,76%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>79,31%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4754,32 +4754,32 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>283957</t>
+          <t>558246</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>275866</t>
+          <t>538464</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>291646</t>
+          <t>576191</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>69,05%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>65,68%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>70,92%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4789,32 +4789,32 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>556023</t>
+          <t>1133323</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>544471</t>
+          <t>1107039</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>565852</t>
+          <t>1159403</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>72,82%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>70,68%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>74,11%</t>
+          <t>74,03%</t>
         </is>
       </c>
     </row>
@@ -4832,32 +4832,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>64057</t>
+          <t>137709</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>57834</t>
+          <t>122308</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>70872</t>
+          <t>153301</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4867,32 +4867,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>104398</t>
+          <t>212497</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>96859</t>
+          <t>196040</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>111590</t>
+          <t>230952</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4902,32 +4902,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>168456</t>
+          <t>350207</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>158783</t>
+          <t>327756</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>178600</t>
+          <t>377513</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>24,1%</t>
         </is>
       </c>
     </row>
@@ -4945,32 +4945,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>12144</t>
+          <t>25220</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>9451</t>
+          <t>18935</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>15400</t>
+          <t>34050</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4980,32 +4980,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>19293</t>
+          <t>42037</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>15700</t>
+          <t>33767</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>23365</t>
+          <t>52998</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5015,32 +5015,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>31437</t>
+          <t>67258</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>27166</t>
+          <t>56629</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>36771</t>
+          <t>79856</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -5058,32 +5058,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>8336</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>5046</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>6524</t>
+          <t>14975</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5093,32 +5093,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>2273</t>
+          <t>4420</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>5605</t>
+          <t>11772</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5128,32 +5128,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>7651</t>
+          <t>15374</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>5448</t>
+          <t>10666</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>10399</t>
+          <t>22684</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -5171,17 +5171,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5206,17 +5206,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5241,17 +5241,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5536,12 +5536,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>114023</t>
+          <t>115658</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>165984</t>
+          <t>167143</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5551,12 +5551,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,27%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>70,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>96260</t>
+          <t>95736</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>129867</t>
+          <t>130821</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5586,12 +5586,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>52,22%</t>
+          <t>51,93%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>70,44%</t>
+          <t>70,96%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>224756</t>
+          <t>221046</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>287901</t>
+          <t>287452</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5621,12 +5621,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>53,44%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>68,35%</t>
         </is>
       </c>
     </row>
@@ -5649,12 +5649,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>64302</t>
+          <t>64312</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>114551</t>
+          <t>115062</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40672</t>
+          <t>41008</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>72993</t>
+          <t>72237</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5699,12 +5699,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>115280</t>
+          <t>112620</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>176547</t>
+          <t>176339</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5734,12 +5734,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>41,93%</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17210</t>
+          <t>18596</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5643</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>27119</t>
+          <t>28717</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5812,12 +5812,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5832,12 +5832,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>8554</t>
+          <t>8860</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>36199</t>
+          <t>35152</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5847,12 +5847,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,36%</t>
         </is>
       </c>
     </row>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5716</t>
+          <t>8133</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6595</t>
+          <t>6360</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5945,12 +5945,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>164</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>8866</t>
+          <t>9574</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -6105,12 +6105,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>129108</t>
+          <t>125812</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>165686</t>
+          <t>164582</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6120,12 +6120,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,29%</t>
+          <t>54,85%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>71,75%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -6140,12 +6140,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>187631</t>
+          <t>187035</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>267294</t>
+          <t>268003</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6155,12 +6155,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>59,67%</t>
+          <t>59,48%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>85,01%</t>
+          <t>85,24%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>331926</t>
+          <t>331495</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>431749</t>
+          <t>428886</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6190,12 +6190,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>78,87%</t>
         </is>
       </c>
     </row>
@@ -6218,12 +6218,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55346</t>
+          <t>55601</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90956</t>
+          <t>92480</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6233,12 +6233,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>40,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6253,12 +6253,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36737</t>
+          <t>35926</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>96663</t>
+          <t>96160</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6288,12 +6288,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>88367</t>
+          <t>92221</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>174636</t>
+          <t>175326</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>32,24%</t>
         </is>
       </c>
     </row>
@@ -6331,12 +6331,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2051</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12310</t>
+          <t>12495</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6346,12 +6346,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6457</t>
+          <t>7361</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28815</t>
+          <t>28174</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6381,12 +6381,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6401,12 +6401,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>12861</t>
+          <t>11583</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>33292</t>
+          <t>34460</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6416,12 +6416,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -6444,12 +6444,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1552</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11880</t>
+          <t>13154</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6459,12 +6459,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -6479,12 +6479,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15109</t>
+          <t>14547</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6494,12 +6494,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -6514,12 +6514,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>5039</t>
+          <t>5537</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>21541</t>
+          <t>20243</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6529,12 +6529,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -6674,12 +6674,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>176805</t>
+          <t>174341</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>211629</t>
+          <t>210325</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6689,12 +6689,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>57,08%</t>
+          <t>56,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>67,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6709,12 +6709,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>180940</t>
+          <t>181179</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>210204</t>
+          <t>210723</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6724,12 +6724,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>56,09%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>65,16%</t>
+          <t>65,32%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>367104</t>
+          <t>367787</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>411771</t>
+          <t>414295</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6759,12 +6759,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>58,05%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
+          <t>65,52%</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>71301</t>
+          <t>70374</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>101405</t>
+          <t>103313</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6802,12 +6802,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6822,12 +6822,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>88776</t>
+          <t>86781</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>115773</t>
+          <t>114727</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>26,9%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>35,89%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -6857,12 +6857,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>166060</t>
+          <t>166602</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>206213</t>
+          <t>208470</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6872,12 +6872,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>32,97%</t>
         </is>
       </c>
     </row>
@@ -6900,12 +6900,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16708</t>
+          <t>17907</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>36146</t>
+          <t>37187</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6915,12 +6915,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6935,12 +6935,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11760</t>
+          <t>11172</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>24851</t>
+          <t>24437</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6950,12 +6950,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6970,12 +6970,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>31898</t>
+          <t>31476</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>55732</t>
+          <t>54955</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6985,12 +6985,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,69%</t>
         </is>
       </c>
     </row>
@@ -7013,12 +7013,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1863</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13417</t>
+          <t>12381</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -7048,12 +7048,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>5019</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14637</t>
+          <t>14210</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -7063,12 +7063,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -7083,12 +7083,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>8793</t>
+          <t>8795</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>22646</t>
+          <t>22664</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -7243,12 +7243,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73886</t>
+          <t>89414</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>379984</t>
+          <t>381015</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7258,12 +7258,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>60,59%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7278,12 +7278,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>199666</t>
+          <t>197836</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>232421</t>
+          <t>232281</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -7293,12 +7293,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>49,32%</t>
+          <t>48,87%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>57,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -7313,12 +7313,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>225032</t>
+          <t>212413</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>588848</t>
+          <t>590440</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -7328,12 +7328,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>20,58%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>57,22%</t>
         </is>
       </c>
     </row>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>41460</t>
+          <t>41759</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>187174</t>
+          <t>183057</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7391,12 +7391,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>136044</t>
+          <t>136274</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>169352</t>
+          <t>170946</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7406,12 +7406,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>42,23%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -7426,12 +7426,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>124939</t>
+          <t>137374</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>350237</t>
+          <t>352882</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -7441,12 +7441,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>34,2%</t>
         </is>
       </c>
     </row>
@@ -7469,12 +7469,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8400</t>
+          <t>6823</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>49264</t>
+          <t>49810</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7484,12 +7484,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -7504,12 +7504,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>16595</t>
+          <t>16891</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>31344</t>
+          <t>31499</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -7519,12 +7519,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>24661</t>
+          <t>24840</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>72702</t>
+          <t>72970</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -7582,12 +7582,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30117</t>
+          <t>30704</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>499563</t>
+          <t>484372</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7597,12 +7597,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>79,65%</t>
+          <t>77,23%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7617,12 +7617,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>9087</t>
+          <t>8442</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>20671</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>40008</t>
+          <t>41191</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>650325</t>
+          <t>652138</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7667,12 +7667,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>63,02%</t>
+          <t>63,19%</t>
         </is>
       </c>
     </row>
@@ -7812,12 +7812,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>158662</t>
+          <t>157275</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>193614</t>
+          <t>191241</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7827,12 +7827,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>46,65%</t>
+          <t>46,24%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>56,23%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7847,12 +7847,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>136716</t>
+          <t>135745</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>163981</t>
+          <t>164150</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7862,12 +7862,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>42,63%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>51,13%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -7882,12 +7882,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>303599</t>
+          <t>299351</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>346717</t>
+          <t>347037</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7897,12 +7897,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>52,52%</t>
         </is>
       </c>
     </row>
@@ -7925,12 +7925,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>92476</t>
+          <t>92902</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>125140</t>
+          <t>125387</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>110173</t>
+          <t>110859</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>137198</t>
+          <t>136705</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7975,12 +7975,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>42,63%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7995,12 +7995,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>210699</t>
+          <t>210385</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>253594</t>
+          <t>251104</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -8010,12 +8010,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>38,0%</t>
         </is>
       </c>
     </row>
@@ -8038,12 +8038,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28954</t>
+          <t>29730</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>52477</t>
+          <t>52907</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -8053,12 +8053,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -8073,12 +8073,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>26245</t>
+          <t>27025</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>42912</t>
+          <t>44039</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -8108,12 +8108,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>60748</t>
+          <t>59975</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>88022</t>
+          <t>87352</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -8123,12 +8123,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>13,22%</t>
         </is>
       </c>
     </row>
@@ -8151,12 +8151,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>11506</t>
+          <t>11609</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>27182</t>
+          <t>26716</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -8166,12 +8166,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -8186,12 +8186,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>8556</t>
+          <t>8218</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>19083</t>
+          <t>18902</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -8201,12 +8201,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -8221,12 +8221,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>23750</t>
+          <t>23308</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>42137</t>
+          <t>41657</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -8381,12 +8381,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>90840</t>
+          <t>91909</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>114538</t>
+          <t>114323</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -8396,12 +8396,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>55,04%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>176088</t>
+          <t>176291</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>401699</t>
+          <t>411697</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -8431,12 +8431,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -8451,12 +8451,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>287956</t>
+          <t>285182</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>546491</t>
+          <t>562280</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -8466,12 +8466,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>85,1%</t>
         </is>
       </c>
     </row>
@@ -8494,12 +8494,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>68454</t>
+          <t>69035</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>91407</t>
+          <t>91026</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -8509,12 +8509,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>43,74%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -8529,12 +8529,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>35929</t>
+          <t>27422</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>188592</t>
+          <t>188850</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -8544,12 +8544,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>81007</t>
+          <t>69993</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>266940</t>
+          <t>268993</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8579,12 +8579,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>40,71%</t>
         </is>
       </c>
     </row>
@@ -8607,12 +8607,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>10670</t>
+          <t>11225</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>23042</t>
+          <t>24127</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8622,12 +8622,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8642,12 +8642,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>9572</t>
+          <t>8198</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>67031</t>
+          <t>66900</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8657,12 +8657,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8677,12 +8677,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>19495</t>
+          <t>20713</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>76398</t>
+          <t>78761</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8692,12 +8692,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>11,92%</t>
         </is>
       </c>
     </row>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>14707</t>
+          <t>14372</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8735,12 +8735,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>3866</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>27704</t>
+          <t>28858</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8770,12 +8770,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -8790,12 +8790,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>9478</t>
+          <t>8488</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>35420</t>
+          <t>37020</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8805,12 +8805,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -8950,12 +8950,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>56438</t>
+          <t>55587</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>75176</t>
+          <t>75946</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8965,12 +8965,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8985,12 +8985,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>74623</t>
+          <t>74791</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>96110</t>
+          <t>96474</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -9000,12 +9000,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>41,3%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -9020,12 +9020,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>135394</t>
+          <t>137263</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>166010</t>
+          <t>167013</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -9035,12 +9035,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>43,43%</t>
         </is>
       </c>
     </row>
@@ -9063,12 +9063,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>45829</t>
+          <t>46220</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>64058</t>
+          <t>64930</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -9078,12 +9078,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>43,03%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>78961</t>
+          <t>79200</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>99834</t>
+          <t>100510</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -9113,12 +9113,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>33,9%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>43,02%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -9133,12 +9133,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>130958</t>
+          <t>129804</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>159877</t>
+          <t>158346</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -9148,12 +9148,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>41,18%</t>
         </is>
       </c>
     </row>
@@ -9176,12 +9176,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>14211</t>
+          <t>14035</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>27028</t>
+          <t>27401</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -9191,12 +9191,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>27360</t>
+          <t>27072</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>42651</t>
+          <t>42765</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -9246,12 +9246,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>44196</t>
+          <t>44153</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>64798</t>
+          <t>64273</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>16,71%</t>
         </is>
       </c>
     </row>
@@ -9289,12 +9289,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>6070</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>16247</t>
+          <t>16614</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -9304,12 +9304,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -9324,12 +9324,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>17830</t>
+          <t>17971</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>31601</t>
+          <t>32355</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -9339,12 +9339,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -9359,12 +9359,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>26769</t>
+          <t>26663</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>43402</t>
+          <t>43660</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -9374,12 +9374,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>11,35%</t>
         </is>
       </c>
     </row>
@@ -9519,12 +9519,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>722858</t>
+          <t>682802</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1210983</t>
+          <t>1209920</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -9534,12 +9534,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>57,62%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>1165245</t>
+          <t>1161228</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>1552021</t>
+          <t>1532360</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -9569,12 +9569,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>52,18%</t>
+          <t>52,0%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>69,5%</t>
+          <t>68,62%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -9589,12 +9589,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>1945123</t>
+          <t>1934341</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>2592548</t>
+          <t>2591810</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -9604,12 +9604,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>44,62%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>59,81%</t>
+          <t>59,79%</t>
         </is>
       </c>
     </row>
@@ -9632,12 +9632,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>390830</t>
+          <t>397785</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>694385</t>
+          <t>694086</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -9647,12 +9647,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>33,04%</t>
+          <t>33,03%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -9667,12 +9667,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>497962</t>
+          <t>506825</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>785832</t>
+          <t>784526</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -9682,12 +9682,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -9702,12 +9702,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>1031834</t>
+          <t>999400</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>1447210</t>
+          <t>1435974</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>33,13%</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>94759</t>
+          <t>88840</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>168805</t>
+          <t>165711</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -9780,12 +9780,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>125937</t>
+          <t>124949</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>204905</t>
+          <t>202030</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -9795,12 +9795,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -9815,12 +9815,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>251083</t>
+          <t>244708</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>358760</t>
+          <t>353979</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -9858,12 +9858,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>75067</t>
+          <t>74603</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>931572</t>
+          <t>947193</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -9873,12 +9873,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>44,33%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -9893,12 +9893,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>58890</t>
+          <t>59329</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>99322</t>
+          <t>97732</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>152527</t>
+          <t>150730</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>1215579</t>
+          <t>1185820</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -9943,12 +9943,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>27,36%</t>
         </is>
       </c>
     </row>
@@ -15126,12 +15126,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44563</t>
+          <t>44548</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52574</t>
+          <t>52779</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -15141,12 +15141,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>72,82%</t>
+          <t>72,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>86,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -15161,12 +15161,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32818</t>
+          <t>33395</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43203</t>
+          <t>43783</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -15176,12 +15176,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>56,25%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>72,77%</t>
+          <t>73,75%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -15196,12 +15196,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>81051</t>
+          <t>81623</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>94192</t>
+          <t>94768</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -15211,12 +15211,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>78,6%</t>
         </is>
       </c>
     </row>
@@ -15239,12 +15239,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6095</t>
+          <t>6246</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13378</t>
+          <t>13295</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -15254,12 +15254,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -15274,12 +15274,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12420</t>
+          <t>11804</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21988</t>
+          <t>21815</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -15289,12 +15289,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -15309,12 +15309,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>20057</t>
+          <t>19426</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>31686</t>
+          <t>31475</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -15324,12 +15324,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>26,11%</t>
         </is>
       </c>
     </row>
@@ -15352,12 +15352,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>725</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5553</t>
+          <t>5135</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -15367,12 +15367,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -15387,12 +15387,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>893</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4856</t>
+          <t>4936</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -15402,12 +15402,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -15422,12 +15422,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2388</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>8424</t>
+          <t>7885</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -15437,12 +15437,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,54%</t>
         </is>
       </c>
     </row>
@@ -15470,7 +15470,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2648</t>
+          <t>2925</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -15500,12 +15500,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>501</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5655</t>
+          <t>5303</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -15515,12 +15515,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -15535,12 +15535,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>894</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>6541</t>
+          <t>6812</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -15695,12 +15695,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84351</t>
+          <t>83909</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>98055</t>
+          <t>97267</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -15710,12 +15710,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,02%</t>
+          <t>70,65%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>81,9%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -15730,12 +15730,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>86696</t>
+          <t>85325</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>100044</t>
+          <t>100201</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -15745,12 +15745,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>70,18%</t>
+          <t>69,07%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>81,11%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -15765,12 +15765,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>175236</t>
+          <t>174489</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>194165</t>
+          <t>194525</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -15780,12 +15780,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>72,32%</t>
+          <t>72,01%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>80,13%</t>
+          <t>80,28%</t>
         </is>
       </c>
     </row>
@@ -15808,12 +15808,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16070</t>
+          <t>16614</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27575</t>
+          <t>29131</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -15823,12 +15823,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -15843,12 +15843,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18293</t>
+          <t>18125</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31054</t>
+          <t>31219</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -15858,12 +15858,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -15878,12 +15878,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>37304</t>
+          <t>36751</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>54875</t>
+          <t>54847</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -15893,12 +15893,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>22,64%</t>
         </is>
       </c>
     </row>
@@ -15921,12 +15921,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7361</t>
+          <t>7215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -15936,12 +15936,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -15956,12 +15956,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8610</t>
+          <t>8574</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -15971,12 +15971,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -15991,12 +15991,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>4744</t>
+          <t>4864</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>13553</t>
+          <t>13126</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -16006,12 +16006,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -16034,12 +16034,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>578</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5980</t>
+          <t>5707</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -16049,12 +16049,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -16069,12 +16069,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>319</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3576</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -16084,12 +16084,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -16104,12 +16104,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>7815</t>
+          <t>7557</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -16119,12 +16119,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -16264,12 +16264,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>106023</t>
+          <t>106560</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>118606</t>
+          <t>118474</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -16279,12 +16279,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>79,69%</t>
+          <t>80,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>89,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -16299,12 +16299,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>94185</t>
+          <t>94473</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>107986</t>
+          <t>107857</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -16314,12 +16314,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>72,18%</t>
+          <t>72,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>82,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -16334,12 +16334,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>204211</t>
+          <t>205046</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>223004</t>
+          <t>223042</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -16349,12 +16349,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>77,81%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>84,64%</t>
         </is>
       </c>
     </row>
@@ -16377,12 +16377,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11491</t>
+          <t>11569</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22749</t>
+          <t>23164</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -16392,12 +16392,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -16412,12 +16412,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14951</t>
+          <t>14843</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27602</t>
+          <t>26839</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -16427,12 +16427,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -16447,12 +16447,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>29591</t>
+          <t>29903</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>46507</t>
+          <t>46448</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -16462,12 +16462,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,62%</t>
         </is>
       </c>
     </row>
@@ -16490,12 +16490,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6094</t>
+          <t>6187</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -16505,12 +16505,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -16525,12 +16525,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2586</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9845</t>
+          <t>9643</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -16560,12 +16560,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>5104</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>13510</t>
+          <t>13347</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -16575,12 +16575,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -16638,12 +16638,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>1725</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6281</t>
+          <t>6639</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -16653,12 +16653,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -16673,12 +16673,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1909</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>6997</t>
+          <t>6819</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -16688,12 +16688,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -16833,12 +16833,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>85714</t>
+          <t>85813</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>98079</t>
+          <t>98280</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -16848,12 +16848,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>76,24%</t>
+          <t>76,32%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -16868,12 +16868,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>80660</t>
+          <t>81283</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>95421</t>
+          <t>95744</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -16883,12 +16883,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>68,4%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>80,29%</t>
+          <t>80,57%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -16903,12 +16903,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>171400</t>
+          <t>171236</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>190373</t>
+          <t>190936</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -16918,12 +16918,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>74,11%</t>
+          <t>74,04%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>82,56%</t>
         </is>
       </c>
     </row>
@@ -16946,12 +16946,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11221</t>
+          <t>10696</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22507</t>
+          <t>22892</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -16961,47 +16961,47 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>23788</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>17773</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31939</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>20,02%</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>23788</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>17826</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>31866</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>20,02%</t>
-        </is>
-      </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -17016,12 +17016,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>31625</t>
+          <t>31766</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>50574</t>
+          <t>50155</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -17031,12 +17031,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>21,69%</t>
         </is>
       </c>
     </row>
@@ -17059,12 +17059,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>796</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4487</t>
+          <t>4482</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -17094,12 +17094,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8151</t>
+          <t>7654</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -17109,12 +17109,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -17129,12 +17129,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>3327</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>9908</t>
+          <t>10341</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -17144,12 +17144,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,47%</t>
         </is>
       </c>
     </row>
@@ -17172,12 +17172,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>235</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -17207,12 +17207,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>536</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>4861</t>
+          <t>5054</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -17227,7 +17227,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -17242,12 +17242,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>7808</t>
+          <t>7877</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -17257,12 +17257,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,41%</t>
         </is>
       </c>
     </row>
@@ -17402,12 +17402,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>73191</t>
+          <t>73015</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>81998</t>
+          <t>81870</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -17417,12 +17417,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -17437,12 +17437,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>77338</t>
+          <t>77042</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>89822</t>
+          <t>89824</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -17452,7 +17452,7 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>69,01%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
@@ -17472,12 +17472,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>153535</t>
+          <t>152959</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>169543</t>
+          <t>168899</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -17487,12 +17487,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>75,71%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>83,6%</t>
         </is>
       </c>
     </row>
@@ -17515,12 +17515,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4962</t>
+          <t>4940</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>12346</t>
+          <t>12180</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -17530,12 +17530,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -17550,12 +17550,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>14554</t>
+          <t>14691</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>25755</t>
+          <t>25588</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -17565,12 +17565,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -17585,12 +17585,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>21342</t>
+          <t>21862</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>34743</t>
+          <t>35028</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -17600,12 +17600,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>17,34%</t>
         </is>
       </c>
     </row>
@@ -17628,12 +17628,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>970</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>5809</t>
+          <t>5658</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -17643,12 +17643,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -17663,12 +17663,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>7147</t>
+          <t>6758</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -17678,12 +17678,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -17698,12 +17698,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3509</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>9935</t>
+          <t>10365</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -17713,12 +17713,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -17741,12 +17741,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>360</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4058</t>
+          <t>4191</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -17756,12 +17756,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -17776,12 +17776,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>9324</t>
+          <t>9299</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -17791,12 +17791,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -17811,12 +17811,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3363</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>11859</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -17826,12 +17826,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -17971,12 +17971,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>53484</t>
+          <t>53867</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>61348</t>
+          <t>61590</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -17986,12 +17986,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>80,41%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -18006,12 +18006,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>55470</t>
+          <t>56327</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>69888</t>
+          <t>69804</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -18021,12 +18021,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>67,07%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>83,21%</t>
+          <t>83,11%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -18041,12 +18041,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>112292</t>
+          <t>112925</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>128658</t>
+          <t>129059</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -18056,12 +18056,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>74,61%</t>
+          <t>75,03%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>85,49%</t>
+          <t>85,75%</t>
         </is>
       </c>
     </row>
@@ -18084,12 +18084,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3594</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11317</t>
+          <t>11042</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -18099,12 +18099,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -18119,12 +18119,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>9295</t>
+          <t>9261</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>20444</t>
+          <t>20834</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -18134,12 +18134,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -18154,12 +18154,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>15160</t>
+          <t>14766</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>27669</t>
+          <t>28173</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -18169,12 +18169,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -18197,12 +18197,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>188</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2958</t>
+          <t>2602</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -18232,12 +18232,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>434</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>4733</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -18247,12 +18247,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -18267,12 +18267,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>5638</t>
+          <t>5916</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -18282,12 +18282,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -18315,7 +18315,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -18330,7 +18330,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -18345,12 +18345,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>11961</t>
+          <t>12026</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -18360,12 +18360,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -18380,12 +18380,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>2044</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>13066</t>
+          <t>14824</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -18395,12 +18395,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>37776</t>
+          <t>38882</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>47141</t>
+          <t>47200</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -18555,12 +18555,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>70,14%</t>
+          <t>72,19%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -18575,12 +18575,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>45329</t>
+          <t>45694</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>58544</t>
+          <t>58137</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -18590,12 +18590,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>57,71%</t>
+          <t>58,18%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>74,02%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -18610,12 +18610,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>87948</t>
+          <t>87297</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>102841</t>
+          <t>102317</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -18625,12 +18625,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>66,43%</t>
+          <t>65,93%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>77,67%</t>
+          <t>77,28%</t>
         </is>
       </c>
     </row>
@@ -18653,12 +18653,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>11905</t>
+          <t>10904</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -18688,12 +18688,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9197</t>
+          <t>9100</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>18725</t>
+          <t>18229</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -18703,12 +18703,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -18723,12 +18723,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>14435</t>
+          <t>14990</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>26521</t>
+          <t>27612</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -18738,12 +18738,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>20,86%</t>
         </is>
       </c>
     </row>
@@ -18766,12 +18766,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>384</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>3261</t>
+          <t>3553</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -18781,12 +18781,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -18801,12 +18801,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>3784</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>11633</t>
+          <t>11972</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -18816,12 +18816,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -18836,12 +18836,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>4895</t>
+          <t>4744</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>13677</t>
+          <t>13213</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -18851,12 +18851,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>9,98%</t>
         </is>
       </c>
     </row>
@@ -18879,12 +18879,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>573</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>5733</t>
+          <t>5107</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -18894,12 +18894,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -18914,12 +18914,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>3327</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>11919</t>
+          <t>11812</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -18929,12 +18929,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -18949,12 +18949,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>4581</t>
+          <t>4761</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>14059</t>
+          <t>14802</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -18964,12 +18964,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>11,18%</t>
         </is>
       </c>
     </row>
@@ -19109,12 +19109,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>510734</t>
+          <t>511973</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>538858</t>
+          <t>539557</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>80,28%</t>
+          <t>80,47%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>84,81%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -19144,12 +19144,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>502425</t>
+          <t>504771</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>539537</t>
+          <t>538484</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -19159,12 +19159,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>71,46%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>76,38%</t>
+          <t>76,23%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -19179,12 +19179,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>1024455</t>
+          <t>1027713</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>1072724</t>
+          <t>1071868</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -19194,12 +19194,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>76,3%</t>
+          <t>76,55%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>79,9%</t>
+          <t>79,84%</t>
         </is>
       </c>
     </row>
@@ -19222,12 +19222,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>72454</t>
+          <t>72593</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>96869</t>
+          <t>97606</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -19237,12 +19237,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -19257,12 +19257,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>116926</t>
+          <t>117086</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>147913</t>
+          <t>146547</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -19272,12 +19272,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -19292,12 +19292,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>196237</t>
+          <t>196007</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>238481</t>
+          <t>235385</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -19307,12 +19307,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>17,53%</t>
         </is>
       </c>
     </row>
@@ -19335,12 +19335,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>11228</t>
+          <t>11488</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>21930</t>
+          <t>21563</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -19350,12 +19350,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -19370,12 +19370,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>21470</t>
+          <t>21897</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>36668</t>
+          <t>37524</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -19385,12 +19385,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -19405,12 +19405,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>35953</t>
+          <t>36299</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>54838</t>
+          <t>55949</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -19420,12 +19420,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -19448,12 +19448,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>15144</t>
+          <t>15222</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -19468,7 +19468,7 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -19483,12 +19483,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>17292</t>
+          <t>17499</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>34489</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -19498,12 +19498,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -19518,12 +19518,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>25287</t>
+          <t>24977</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>44865</t>
+          <t>44859</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -19533,7 +19533,7 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
